--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail15 Features.xlsx
@@ -2579,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2591,28 +2591,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2633,115 +2631,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2758,72 +2746,66 @@
         <v>6.962724652972129e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.235438273486259</v>
+        <v>4.990644649246058e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.155529906335573</v>
+        <v>3.764753357602965e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.990644649246058e-07</v>
+        <v>-0.09892910327063251</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.764753357602965e-06</v>
+        <v>0.4101232254239477</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09892910327063251</v>
+        <v>0.1775947262017438</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4101232254239477</v>
+        <v>1.688323061306265</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1775947262017438</v>
+        <v>1.725245952317257</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.605013920740295</v>
+        <v>3.687539139153384</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.725245952317257</v>
+        <v>5.56057758645733e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.687539139153384</v>
+        <v>40840448.87027587</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.56057758645733e-15</v>
+        <v>2.701526738538886e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>40840448.87027587</v>
+        <v>9.274722368289686</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.701526738538886e-06</v>
+        <v>0.0001586582783363366</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9.274722368289686</v>
+        <v>8.842997355843428</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001586582783363366</v>
+        <v>1.28945471236724</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.842997355843428</v>
+        <v>0.01240685559898511</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.28945471236724</v>
+        <v>2.808298776581065</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01240685559898511</v>
+        <v>0.9554362799715723</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.808298776581065</v>
+        <v>1.788635830562657</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9554362799715723</v>
+        <v>13</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.788635830562657</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1622299551202925</v>
       </c>
     </row>
@@ -2838,72 +2820,66 @@
         <v>5.457145385186699e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.0944143946431</v>
+        <v>3.498741551858494e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.49986643798271</v>
+        <v>3.759202581280889e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.498741551858494e-07</v>
+        <v>-0.07970336281823873</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.759202581280889e-06</v>
+        <v>0.396992436370319</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07970336281823873</v>
+        <v>0.1636040407478064</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.396992436370319</v>
+        <v>1.709027753465734</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1636040407478064</v>
+        <v>1.572927922619991</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.630754759516566</v>
+        <v>3.738595590659541</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.572927922619991</v>
+        <v>5.409737637202003e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.738595590659541</v>
+        <v>39804589.65301143</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.409737637202003e-15</v>
+        <v>2.829199066318322e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>39804589.65301143</v>
+        <v>8.571217294752682</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.829199066318322e-06</v>
+        <v>0.0001638686342089537</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.571217294752682</v>
+        <v>8.575865588802024</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001638686342089537</v>
+        <v>1.356333145098596</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.575865588802024</v>
+        <v>0.01205179581901771</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.356333145098596</v>
+        <v>2.810441697673192</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01205179581901771</v>
+        <v>0.956174022513825</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.810441697673192</v>
+        <v>1.784500836166288</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.956174022513825</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.784500836166288</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1594708140567085</v>
       </c>
     </row>
@@ -2918,72 +2894,66 @@
         <v>4.730388400209282e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4021460289594045</v>
+        <v>2.415938082032675e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.1308098841527059</v>
+        <v>3.755857705043147e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.415938082032675e-07</v>
+        <v>-0.05171598043528869</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.755857705043147e-06</v>
+        <v>0.3569626384759526</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05171598043528869</v>
+        <v>0.1298555418610866</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3569626384759526</v>
+        <v>1.707570487317648</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1298555418610866</v>
+        <v>1.525794758235501</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.63029696940305</v>
+        <v>3.970677092687417</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.525794758235501</v>
+        <v>4.795832883658397e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.970677092687417</v>
+        <v>44560735.59796229</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.795832883658397e-15</v>
+        <v>2.529461648036747e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>44560735.59796229</v>
+        <v>9.522889481029097</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.529461648036747e-06</v>
+        <v>0.0001669774999942433</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.522889481029097</v>
+        <v>9.656042517189144</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001669774999942433</v>
+        <v>1.209641385680785</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.656042517189144</v>
+        <v>0.0155688413530873</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.209641385680785</v>
+        <v>2.686006308097349</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0155688413530873</v>
+        <v>0.9571308386065078</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.686006308097349</v>
+        <v>1.797134174954658</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9571308386065078</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.797134174954658</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1654886019543461</v>
       </c>
     </row>
@@ -2998,72 +2968,66 @@
         <v>4.468854420077675e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2490007294770792</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.3682837176405274</v>
+        <v>3.754156778659849e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>-0.02313210160452706</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.754156778659849e-06</v>
+        <v>0.3108956684730849</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02313210160452706</v>
+        <v>0.09706088940648226</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3108956684730849</v>
+        <v>1.709015764065765</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09706088940648226</v>
+        <v>1.516317441276624</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.633675853437055</v>
+        <v>4.390060548713008</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.516317441276624</v>
+        <v>3.79351245425116e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.390060548713008</v>
+        <v>59063138.26092278</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.79351245425116e-15</v>
+        <v>1.92340764645689e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>59063138.26092278</v>
+        <v>13.23349483779778</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.92340764645689e-06</v>
+        <v>0.0001766854833824075</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>13.23349483779778</v>
+        <v>10.8926168759836</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001766854833824075</v>
+        <v>1.118750709717464</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.8926168759836</v>
+        <v>0.02096357401166297</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.118750709717464</v>
+        <v>2.523485155948948</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02096357401166297</v>
+        <v>0.9583875826210392</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.523485155948948</v>
+        <v>1.788860021466984</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9583875826210392</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.788860021466984</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1693411942096783</v>
       </c>
     </row>
@@ -3078,72 +3042,66 @@
         <v>4.41861122646411e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2515429842055482</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2990823269012193</v>
+        <v>3.753678861310997e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.0004575484727653809</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.753678861310997e-06</v>
+        <v>0.2802545446818375</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0004575484727653809</v>
+        <v>0.07848515339834175</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2802545446818375</v>
+        <v>1.760799134964653</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.07848515339834175</v>
+        <v>1.781745176753113</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.697207056785988</v>
+        <v>3.765730481939609</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.781745176753113</v>
+        <v>3.359081255727033e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.765730481939609</v>
+        <v>65438743.05938871</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.359081255727033e-15</v>
+        <v>1.766348308188769e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>65438743.05938871</v>
+        <v>14.38435547967255</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.766348308188769e-06</v>
+        <v>0.0001939437117812185</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>14.38435547967255</v>
+        <v>9.609494946636481</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001939437117812185</v>
+        <v>1.387541558460074</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.609494946636481</v>
+        <v>0.01790922647828254</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.387541558460074</v>
+        <v>2.678531938266008</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01790922647828254</v>
+        <v>0.9595029919149541</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.678531938266008</v>
+        <v>1.681806965967334</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9595029919149541</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.681806965967334</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1562053050561353</v>
       </c>
     </row>
@@ -3158,72 +3116,66 @@
         <v>4.444092499793526e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2328219248017482</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.356813916689215</v>
+        <v>3.754075859467895e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.01565810981936696</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.754075859467895e-06</v>
+        <v>0.266723186465461</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01565810981936696</v>
+        <v>0.07137270435514391</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.266723186465461</v>
+        <v>1.764078901275119</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07137270435514391</v>
+        <v>1.580596049552401</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.694043471661882</v>
+        <v>3.96805841316098</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.580596049552401</v>
+        <v>3.016812494192691e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.96805841316098</v>
+        <v>74402625.72862858</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.016812494192691e-15</v>
+        <v>1.558635946739466e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>74402625.72862858</v>
+        <v>16.70032192269656</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.558635946739466e-06</v>
+        <v>0.000171488692610886</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>16.70032192269656</v>
+        <v>9.076109896355614</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000171488692610886</v>
+        <v>1.376932049592291</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.076109896355614</v>
+        <v>0.01412651324600465</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.376932049592291</v>
+        <v>2.830927503163733</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01412651324600465</v>
+        <v>0.9582879803286187</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.830927503163733</v>
+        <v>1.712265114165386</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9582879803286187</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.712265114165386</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1846205408785465</v>
       </c>
     </row>
@@ -3238,72 +3190,66 @@
         <v>4.486996361981711e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1914016423406718</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.4500691687151988</v>
+        <v>3.754911755408728e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.01995719840882142</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.754911755408728e-06</v>
+        <v>0.2620975902688878</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01995719840882142</v>
+        <v>0.06909330883842536</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2620975902688878</v>
+        <v>1.774537676105559</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.06909330883842536</v>
+        <v>1.66433458496378</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.705280632988084</v>
+        <v>3.808529557107703</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.66433458496378</v>
+        <v>2.801449020130704e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.808529557107703</v>
+        <v>83288205.80004796</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.801449020130704e-15</v>
+        <v>1.40428992012972e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>83288205.80004796</v>
+        <v>19.43344237539199</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.40428992012972e-06</v>
+        <v>0.0001458304753332409</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>19.43344237539199</v>
+        <v>8.876038918565763</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001458304753332409</v>
+        <v>1.297141819169526</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.876038918565763</v>
+        <v>0.01148911792236412</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.297141819169526</v>
+        <v>2.950904377766744</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01148911792236412</v>
+        <v>0.957135153324293</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.950904377766744</v>
+        <v>1.683140376246717</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.957135153324293</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.683140376246717</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2101976141422765</v>
       </c>
     </row>
@@ -3318,72 +3264,66 @@
         <v>4.524551781615156e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1503016128564959</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5289810227892766</v>
+        <v>3.755719008958503e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.01446841167722397</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.755719008958503e-06</v>
+        <v>0.2590819079538553</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01446841167722397</v>
+        <v>0.06732114427678652</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2590819079538553</v>
+        <v>1.780088267987899</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.06732114427678652</v>
+        <v>1.854646082988927</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.709302673643564</v>
+        <v>3.837268357459184</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.854646082988927</v>
+        <v>2.759643865972644e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.837268357459184</v>
+        <v>84261272.50387898</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.759643865972644e-15</v>
+        <v>1.388187908044106e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>84261272.50387898</v>
+        <v>19.59336670328855</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.388187908044106e-06</v>
+        <v>0.000138286833458452</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>19.59336670328855</v>
+        <v>8.599906340222047</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000138286833458452</v>
+        <v>1.287608376043337</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.599906340222047</v>
+        <v>0.01022747143087739</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.287608376043337</v>
+        <v>3.000719270844025</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01022747143087739</v>
+        <v>0.9564335594122307</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.000719270844025</v>
+        <v>1.694842548833717</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9564335594122307</v>
+        <v>10</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.694842548833717</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2047599895407518</v>
       </c>
     </row>
@@ -3398,72 +3338,66 @@
         <v>4.547282241717323e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1291051771958792</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.575499344862584</v>
+        <v>3.756143593673773e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.004309974781664131</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.756143593673773e-06</v>
+        <v>0.2528807632857868</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.004309974781664131</v>
+        <v>0.06395540703512505</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2528807632857868</v>
+        <v>1.784179458502659</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.06395540703512505</v>
+        <v>1.745189997791857</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.712708559742124</v>
+        <v>3.84043362791733</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.745189997791857</v>
+        <v>2.755096765116079e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.84043362791733</v>
+        <v>84310303.59658948</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.755096765116079e-15</v>
+        <v>1.389147350321623e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>84310303.59658948</v>
+        <v>19.58385401941182</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.389147350321623e-06</v>
+        <v>0.0001334800102810002</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>19.58385401941182</v>
+        <v>8.704953149274262</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001334800102810002</v>
+        <v>1.214375995675617</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.704953149274262</v>
+        <v>0.0101146092005651</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.214375995675617</v>
+        <v>2.943822385357995</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0101146092005651</v>
+        <v>0.95686232709715</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.943822385357995</v>
+        <v>1.696132633128075</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.95686232709715</v>
+        <v>14</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.696132633128075</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2111278812500662</v>
       </c>
     </row>
@@ -3478,72 +3412,66 @@
         <v>4.548849698932486e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.127822488673598</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5786606125447555</v>
+        <v>3.756169882799705e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>-0.002115747271682027</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.756169882799705e-06</v>
+        <v>0.2509090505349213</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.002115747271682027</v>
+        <v>0.06295860237746517</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2509090505349213</v>
+        <v>1.787363238990429</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.06295860237746517</v>
+        <v>1.686425876283784</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.714662319570674</v>
+        <v>3.873938930936487</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.686425876283784</v>
+        <v>2.707645753529417e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.873938930936487</v>
+        <v>85653334.14306621</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.707645753529417e-15</v>
+        <v>1.368080359324653e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>85653334.14306621</v>
+        <v>19.86462587674082</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.368080359324653e-06</v>
+        <v>0.000134196651282703</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>19.86462587674082</v>
+        <v>8.277620458185808</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000134196651282703</v>
+        <v>1.237750798000386</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.277620458185808</v>
+        <v>0.009195020409597989</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.237750798000386</v>
+        <v>2.951537809987602</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009195020409597989</v>
+        <v>0.9556533135463173</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.951537809987602</v>
+        <v>1.684368647487206</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9556533135463173</v>
+        <v>14</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.684368647487206</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2101477595673159</v>
       </c>
     </row>
@@ -3558,72 +3486,66 @@
         <v>4.541012713126001e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1328163147380579</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.5636476893466815</v>
+        <v>3.756052289535825e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>-0.001862773829215279</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.756052289535825e-06</v>
+        <v>0.2510603258598506</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.001862773829215279</v>
+        <v>0.06303194589121727</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2510603258598506</v>
+        <v>1.794211248581935</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.06303194589121727</v>
+        <v>1.646871559821965</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.719940537767293</v>
+        <v>3.946631977988053</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.646871559821965</v>
+        <v>2.60882004999706e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.946631977988053</v>
+        <v>88804947.26619601</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.60882004999706e-15</v>
+        <v>1.325051389615562e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>88804947.26619601</v>
+        <v>20.57398623813952</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.325051389615562e-06</v>
+        <v>0.0001414518588292272</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>20.57398623813952</v>
+        <v>8.182833675743909</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001414518588292272</v>
+        <v>1.289351082969088</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.182833675743909</v>
+        <v>0.009471442052096539</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.289351082969088</v>
+        <v>2.933064013437246</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009471442052096539</v>
+        <v>0.9570689990436326</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.933064013437246</v>
+        <v>1.701042522640357</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9570689990436326</v>
+        <v>14</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.701042522640357</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2028405606207294</v>
       </c>
     </row>
@@ -3638,72 +3560,66 @@
         <v>4.543808248757442e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1300541746726785</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5695494962890093</v>
+        <v>3.756105993170933e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.005157330942538564</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.756105993170933e-06</v>
+        <v>0.2476112689201221</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.005157330942538564</v>
+        <v>0.06132496731863573</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2476112689201221</v>
+        <v>1.785615896020557</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.06132496731863573</v>
+        <v>1.63035643967698</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.709601114468663</v>
+        <v>3.917874608785751</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.63035643967698</v>
+        <v>2.408915012715276e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.917874608785751</v>
+        <v>92213777.28249097</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.408915012715276e-15</v>
+        <v>1.264591382150224e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>92213777.28249097</v>
+        <v>20.48392147693955</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.264591382150224e-06</v>
+        <v>0.0001622108669600048</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>20.48392147693955</v>
+        <v>8.640665960315767</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001622108669600048</v>
+        <v>1.3930401237935</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.640665960315767</v>
+        <v>0.01211084309544174</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.3930401237935</v>
+        <v>2.876646260813909</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01211084309544174</v>
+        <v>0.9584688995367795</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.876646260813909</v>
+        <v>1.715178820871415</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9584688995367795</v>
+        <v>14</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.715178820871415</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.180955795861625</v>
       </c>
     </row>
@@ -3718,72 +3634,66 @@
         <v>4.563870126838254e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1049564004944483</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.6114461822350501</v>
+        <v>3.756569933485056e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.01513212975095589</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.756569933485056e-06</v>
+        <v>0.23987509934802</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01513212975095589</v>
+        <v>0.05775466230895933</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.23987509934802</v>
+        <v>1.792600088332983</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.05775466230895933</v>
+        <v>1.915723207455858</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.717066765904871</v>
+        <v>3.755818593623947</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.915723207455858</v>
+        <v>2.348740956433624e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.755818593623947</v>
+        <v>94276688.19010711</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.348740956433624e-15</v>
+        <v>1.24021658727332e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>94276688.19010711</v>
+        <v>20.87583025233491</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.24021658727332e-06</v>
+        <v>0.0001715756535375579</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>20.87583025233491</v>
+        <v>10.23347422584361</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001715756535375579</v>
+        <v>1.244219215759782</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.23347422584361</v>
+        <v>0.01796808783703605</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.244219215759782</v>
+        <v>2.765223579648066</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01796808783703605</v>
+        <v>0.9564630057142217</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.765223579648066</v>
+        <v>1.672953963236682</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9564630057142217</v>
+        <v>14</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.672953963236682</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1798637450395507</v>
       </c>
     </row>
@@ -3798,72 +3708,66 @@
         <v>4.586075163687382e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.05635411071726183</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.6557581544241327</v>
+        <v>3.757456269546612e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.02308901614637767</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.757456269546612e-06</v>
+        <v>0.2316149088256289</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.02308901614637767</v>
+        <v>0.05416770747975897</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2316149088256289</v>
+        <v>1.792264085390832</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.05416770747975897</v>
+        <v>1.826632594432514</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.719498902253709</v>
+        <v>3.715540725986179</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.826632594432514</v>
+        <v>2.399939447645462e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.715540725986179</v>
+        <v>93659625.01328596</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.399939447645462e-15</v>
+        <v>1.24924194644617e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>93659625.01328596</v>
+        <v>21.05256968546571</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.24924194644617e-06</v>
+        <v>0.000161255838490024</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>21.05256968546571</v>
+        <v>11.00884307090359</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.000161255838490024</v>
+        <v>1.154754244903758</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.00884307090359</v>
+        <v>0.01954334099737832</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.154754244903758</v>
+        <v>2.697349855262948</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01954334099737832</v>
+        <v>0.9565214310165226</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.697349855262948</v>
+        <v>1.676925344077105</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9565214310165226</v>
+        <v>14</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.676925344077105</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1942530149496293</v>
       </c>
     </row>
@@ -3878,72 +3782,66 @@
         <v>4.589173206051656e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.005520837629734219</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.6635332375396938</v>
+        <v>3.758657602498838e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.02894178478784678</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.758657602498838e-06</v>
+        <v>0.2253134102080716</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02894178478784678</v>
+        <v>0.05159522568342143</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2253134102080716</v>
+        <v>1.793172748243449</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.05159522568342143</v>
+        <v>1.904294766309428</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.718794296145935</v>
+        <v>3.737674817555555</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.904294766309428</v>
+        <v>2.371599265411354e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.737674817555555</v>
+        <v>95850922.25181626</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.371599265411354e-15</v>
+        <v>1.220345813476295e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>95850922.25181626</v>
+        <v>21.78882942267646</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.220345813476295e-06</v>
+        <v>0.0001500404291167713</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>21.78882942267646</v>
+        <v>9.128302951985352</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001500404291167713</v>
+        <v>1.267497451745955</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.128302951985352</v>
+        <v>0.01250225601062252</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.267497451745955</v>
+        <v>2.899812449197629</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01250225601062252</v>
+        <v>0.9583191486857932</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.899812449197629</v>
+        <v>1.697899778986248</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9583191486857932</v>
+        <v>14</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.697899778986248</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1872483790623098</v>
       </c>
     </row>
@@ -3958,72 +3856,66 @@
         <v>4.559874903018284e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.06825247472513851</v>
+        <v>1.827157116008173e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.6231351397811222</v>
+        <v>3.760094822415434e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.827157116008173e-07</v>
+        <v>0.03371071287828376</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.760094822415434e-06</v>
+        <v>0.2223830945554259</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03371071287828376</v>
+        <v>0.05058523833544002</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2223830945554259</v>
+        <v>1.804817421356279</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.05058523833544002</v>
+        <v>1.757764874295813</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.733598244599078</v>
+        <v>3.732737206455041</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.757764874295813</v>
+        <v>2.377877649955255e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.732737206455041</v>
+        <v>99283048.55920713</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.377877649955255e-15</v>
+        <v>1.18125982961725e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>99283048.55920713</v>
+        <v>23.43903421328753</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.18125982961725e-06</v>
+        <v>0.0001470379577049297</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>23.43903421328753</v>
+        <v>8.189316100166089</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001470379577049297</v>
+        <v>1.344010522826644</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.189316100166089</v>
+        <v>0.009861085663317188</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.344010522826644</v>
+        <v>2.934422723966087</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.009861085663317188</v>
+        <v>0.9583316740875646</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.934422723966087</v>
+        <v>1.679634880608368</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9583316740875646</v>
+        <v>12</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.679634880608368</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1877886503466558</v>
       </c>
     </row>
@@ -4400,7 +4292,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.248066039376563</v>
+        <v>1.231071869777707</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.937852704794632</v>
@@ -4489,7 +4381,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.265868359205087</v>
+        <v>1.246333740449328</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.936517191193864</v>
@@ -4578,7 +4470,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.256838198333597</v>
+        <v>1.237648654902599</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.927913601153134</v>
@@ -4667,7 +4559,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.218114900797719</v>
+        <v>1.203507097975569</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.957534076636974</v>
@@ -4756,7 +4648,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.227743032367018</v>
+        <v>1.212178132943649</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.939904148450306</v>
@@ -4845,7 +4737,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.255841162257429</v>
+        <v>1.241713162503945</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.909214005963016</v>
@@ -4934,7 +4826,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.272176560513913</v>
+        <v>1.278338071400793</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.724697356888368</v>
@@ -5023,7 +4915,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.30533100567351</v>
+        <v>1.314136017339176</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.754601195924523</v>
@@ -5112,7 +5004,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.308884728065296</v>
+        <v>1.310773227567451</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.822646008766472</v>
@@ -5201,7 +5093,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.29522334388502</v>
+        <v>1.303049401395368</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.785808910139055</v>
@@ -5290,7 +5182,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.290610848954807</v>
+        <v>1.303518904687076</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.78139563381335</v>
@@ -5379,7 +5271,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.287968487350816</v>
+        <v>1.298309585555069</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.781316092688988</v>
@@ -5468,7 +5360,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.258753774082937</v>
+        <v>1.26378603559265</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.804021729306842</v>
@@ -5557,7 +5449,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.254161296249725</v>
+        <v>1.259699396483634</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.822029333417558</v>
@@ -5646,7 +5538,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.25671502490802</v>
+        <v>1.260939405896911</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.78319617843734</v>
@@ -5735,7 +5627,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.257189717527809</v>
+        <v>1.262493085071768</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.813932495122855</v>
@@ -5824,7 +5716,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.257868940050908</v>
+        <v>1.262185683673921</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.806350366670982</v>
@@ -5913,7 +5805,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.27650993166979</v>
+        <v>1.276682872684397</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.793751705549628</v>
@@ -6002,7 +5894,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.315809067192728</v>
+        <v>1.314116506392011</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.972653643968087</v>
@@ -6091,7 +5983,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.32250884888805</v>
+        <v>1.318994727965999</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.094619662329491</v>
@@ -6180,7 +6072,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.317226208284202</v>
+        <v>1.314976399750254</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.096994602130509</v>
@@ -6269,7 +6161,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.332904831685794</v>
+        <v>1.331678171931061</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.012648550226633</v>
@@ -6358,7 +6250,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.307870726494064</v>
+        <v>1.304776788807982</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.108581352486029</v>
@@ -6447,7 +6339,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.330355046505455</v>
+        <v>1.32773319218347</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.217343829615041</v>
@@ -6536,7 +6428,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.3311029575913</v>
+        <v>1.324760580650565</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.077910608267675</v>
@@ -6625,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.318573546564382</v>
+        <v>1.314192538424039</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.047506311841231</v>
@@ -6714,7 +6606,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.31772783884569</v>
+        <v>1.305379834963103</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.941243657517875</v>
@@ -6803,7 +6695,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.325565054859778</v>
+        <v>1.319426043079059</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.126752446030803</v>
@@ -6892,7 +6784,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.331198491079892</v>
+        <v>1.323953366889905</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.066450347620917</v>
@@ -6981,7 +6873,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.347449126213503</v>
+        <v>1.334426300673853</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.027284357819838</v>
@@ -7070,7 +6962,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.319630490664087</v>
+        <v>1.315336450902434</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.045911302951275</v>
@@ -7159,7 +7051,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.318963134139772</v>
+        <v>1.315885218237148</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.004454421314063</v>
@@ -7248,7 +7140,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.311315705065868</v>
+        <v>1.305681872766781</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.076985629133122</v>
@@ -7337,7 +7229,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.332331342834581</v>
+        <v>1.325907586476385</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.093312581827009</v>
@@ -7426,7 +7318,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.312060046660585</v>
+        <v>1.305982797039956</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.161990096806721</v>
@@ -7515,7 +7407,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.334410681571149</v>
+        <v>1.330306677492247</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.096266433098489</v>
@@ -7604,7 +7496,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.270684357386765</v>
+        <v>1.265916035280946</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.118602290000934</v>
@@ -7693,7 +7585,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.290378420619168</v>
+        <v>1.280603148960654</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.118770155175288</v>
@@ -7782,7 +7674,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.280012238900293</v>
+        <v>1.270767726984409</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.101881251248953</v>
@@ -7871,7 +7763,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.289379393212973</v>
+        <v>1.283605198752795</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.076595885374273</v>
@@ -7960,7 +7852,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.295529503124687</v>
+        <v>1.28859283733545</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.162750189717611</v>
@@ -8049,7 +7941,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.303443721245644</v>
+        <v>1.298166824610293</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.017270172920562</v>
@@ -8138,7 +8030,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.326931657516784</v>
+        <v>1.319755468561436</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.196216779511776</v>
@@ -8227,7 +8119,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.343755951159123</v>
+        <v>1.342658328957858</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.297442956674109</v>
@@ -8316,7 +8208,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.356268015470522</v>
+        <v>1.350169239393339</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.067075139916434</v>
@@ -8405,7 +8297,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.363320099307127</v>
+        <v>1.352297965953884</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.245063881964462</v>
@@ -8494,7 +8386,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.353354926835348</v>
+        <v>1.346457310988673</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.265068891590585</v>
@@ -8583,7 +8475,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.353216222570609</v>
+        <v>1.339151081040762</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.995801459648329</v>
@@ -8672,7 +8564,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.343353060344506</v>
+        <v>1.336629066140305</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.05463786728538</v>
@@ -8761,7 +8653,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.358587997356564</v>
+        <v>1.3522438608915</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.054956003226704</v>
@@ -8850,7 +8742,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.353166232042608</v>
+        <v>1.348037712356946</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.10785047445436</v>
@@ -8939,7 +8831,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.388525183633169</v>
+        <v>1.388291479987594</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.175809970801298</v>
@@ -9028,7 +8920,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.407280056846069</v>
+        <v>1.405134661488329</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.127364132779018</v>
@@ -9117,7 +9009,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.38826868089447</v>
+        <v>1.393258974301073</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.175165760973728</v>
@@ -9206,7 +9098,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.387749642904002</v>
+        <v>1.39403908108948</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.262344874544837</v>
@@ -9295,7 +9187,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.395220333040866</v>
+        <v>1.402874951496262</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.213205911652328</v>
@@ -9384,7 +9276,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.408501845171913</v>
+        <v>1.417301259333787</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.228583070998304</v>
@@ -9473,7 +9365,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.412807366097127</v>
+        <v>1.424090915143137</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.129127939449662</v>
@@ -9562,7 +9454,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.406658318033491</v>
+        <v>1.414942316810937</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.147080563124985</v>
@@ -9651,7 +9543,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.412631834112089</v>
+        <v>1.432245863312365</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.268527844122586</v>
@@ -9740,7 +9632,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.41876177700235</v>
+        <v>1.440287640458159</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.087951014868577</v>
@@ -10026,7 +9918,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.403750594868082</v>
+        <v>1.424399224488829</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.15803578348937</v>
@@ -10115,7 +10007,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.396767280438663</v>
+        <v>1.418928592619008</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.19913171996822</v>
@@ -10204,7 +10096,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.391312276287467</v>
+        <v>1.410045383249767</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.164781105556549</v>
@@ -10293,7 +10185,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.37450967865286</v>
+        <v>1.390848211026247</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.160901501382242</v>
@@ -10382,7 +10274,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.374858045260168</v>
+        <v>1.389474369921168</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.121726309894798</v>
@@ -10471,7 +10363,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.444951801872965</v>
+        <v>1.45712691552739</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.05727002987267</v>
@@ -10560,7 +10452,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.506301783438493</v>
+        <v>1.51409919630511</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.356387360617841</v>
@@ -10649,7 +10541,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.509177279288955</v>
+        <v>1.514320373907207</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.265394493258194</v>
@@ -10738,7 +10630,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.525107736321797</v>
+        <v>1.522922309326332</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.223927544587098</v>
@@ -10827,7 +10719,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.549639437154465</v>
+        <v>1.543949849066802</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.645368164572498</v>
@@ -10916,7 +10808,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.576818973201091</v>
+        <v>1.564077223714555</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.912852771482397</v>
@@ -11005,7 +10897,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.596621933763755</v>
+        <v>1.578224209406301</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.401260207940435</v>
@@ -11094,7 +10986,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.604977055983199</v>
+        <v>1.580826323773834</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.511231977686569</v>
@@ -11183,7 +11075,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.596063741623276</v>
+        <v>1.572823692768235</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.639901780688215</v>
@@ -11272,7 +11164,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580494198344804</v>
+        <v>1.556355830741561</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.863383020248791</v>
@@ -11361,7 +11253,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.577094301261132</v>
+        <v>1.552703027688919</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.633568213335765</v>
@@ -11450,7 +11342,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.583332157524655</v>
+        <v>1.563341361336611</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.461299851376458</v>
@@ -11539,7 +11431,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.587422972522937</v>
+        <v>1.571482243802831</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.788623437060779</v>
@@ -11628,7 +11520,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.624130879712264</v>
+        <v>1.604547730728268</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.763974848557356</v>
@@ -11717,7 +11609,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.615105593682045</v>
+        <v>1.594144646496995</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.076500511734781</v>
@@ -11806,7 +11698,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.598128536278278</v>
+        <v>1.574958869969647</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.173161366815973</v>
@@ -11895,7 +11787,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.589424715294522</v>
+        <v>1.571343723725725</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.152304808255997</v>
@@ -11984,7 +11876,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.580709347999634</v>
+        <v>1.562468853825233</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.98900518357453</v>
@@ -12073,7 +11965,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.583867341936956</v>
+        <v>1.564614349898013</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.943476918748039</v>
@@ -12162,7 +12054,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577623129432507</v>
+        <v>1.558395253622064</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.17031052615007</v>
@@ -12251,7 +12143,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.579820123194856</v>
+        <v>1.564124675667863</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.810353538035957</v>
@@ -12340,7 +12232,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.586216116598513</v>
+        <v>1.571598070799887</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.020414925722069</v>
@@ -12429,7 +12321,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.599129333857482</v>
+        <v>1.584873481262274</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.195179917256428</v>
@@ -12518,7 +12410,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.607611417477137</v>
+        <v>1.596894334563022</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.906245423312736</v>
@@ -12607,7 +12499,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.616865721507853</v>
+        <v>1.608229019736219</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.283130108591575</v>
@@ -12696,7 +12588,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.62311808991535</v>
+        <v>1.610523034314184</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.826681305254401</v>
@@ -12785,7 +12677,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.623376265531224</v>
+        <v>1.606997651432421</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.130566215448324</v>
@@ -12874,7 +12766,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.624253634432739</v>
+        <v>1.610728405304571</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.308940321669039</v>
@@ -12963,7 +12855,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.623890852249848</v>
+        <v>1.611851776704667</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.968398485620363</v>
@@ -13052,7 +12944,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.641466513823554</v>
+        <v>1.635270341259949</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.951031535125716</v>
@@ -13141,7 +13033,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.671407574744826</v>
+        <v>1.662528096895263</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.354913414221424</v>
@@ -13230,7 +13122,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.630883649328585</v>
+        <v>1.636228481443783</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.663275569479957</v>
@@ -13319,7 +13211,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.632147664842866</v>
+        <v>1.631403942195347</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.543010173519275</v>
@@ -13408,7 +13300,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.63350469532081</v>
+        <v>1.63432503855184</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.487275002397608</v>
@@ -13497,7 +13389,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.627725408360869</v>
+        <v>1.629521715153067</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.541096276545351</v>
@@ -13586,7 +13478,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.597840854315968</v>
+        <v>1.609038770284919</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.586657356168879</v>
@@ -13675,7 +13567,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.586457062895851</v>
+        <v>1.597407777233775</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.652173693215348</v>
@@ -13764,7 +13656,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.581898322258172</v>
+        <v>1.591505368253361</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.601525905698423</v>
@@ -13853,7 +13745,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.538351342660151</v>
+        <v>1.547076422699656</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.150562549670556</v>
@@ -13942,7 +13834,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.451636135232454</v>
+        <v>1.468195680450435</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.201808825687851</v>
@@ -14031,7 +13923,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.429349045590343</v>
+        <v>1.447416747195328</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.190189370797974</v>
@@ -14120,7 +14012,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.373697747222025</v>
+        <v>1.392548682122116</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.253487521809824</v>
@@ -14209,7 +14101,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.340484645367209</v>
+        <v>1.350389902120918</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.099122464212222</v>
@@ -14298,7 +14190,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.328016530893643</v>
+        <v>1.339371812363923</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.044492840958034</v>
@@ -14387,7 +14279,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.320684217587611</v>
+        <v>1.329365464337102</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.06958601665558</v>
@@ -14476,7 +14368,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.287472250660343</v>
+        <v>1.291645095938538</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.084331245064616</v>
@@ -14565,7 +14457,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.28313450965478</v>
+        <v>1.290654176347684</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.183851567116187</v>
@@ -14654,7 +14546,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.286016923574381</v>
+        <v>1.284977374182011</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.934229381108764</v>
@@ -14743,7 +14635,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.228111453762959</v>
+        <v>1.24018481341125</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.918229294414481</v>
@@ -14832,7 +14724,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.234792144808753</v>
+        <v>1.248831194936851</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.946239127466136</v>
@@ -14921,7 +14813,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.240648468674914</v>
+        <v>1.254591643143446</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.956966174484235</v>
@@ -15010,7 +14902,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.248254745628897</v>
+        <v>1.263903742028101</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.974579992620056</v>
@@ -15099,7 +14991,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.243445866614063</v>
+        <v>1.258835219116635</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.98420676337066</v>
@@ -15188,7 +15080,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.25813090071877</v>
+        <v>1.275694358792779</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.95355983043634</v>
@@ -15277,7 +15169,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.277944746620119</v>
+        <v>1.301445997707534</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.928377204889053</v>
@@ -15366,7 +15258,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.290235250772874</v>
+        <v>1.312345818637876</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.927878731559147</v>
@@ -15652,7 +15544,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.498267216558851</v>
+        <v>1.494504076117655</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.302940318456089</v>
@@ -15741,7 +15633,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.501250481821715</v>
+        <v>1.491764607829144</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.368892771699389</v>
@@ -15830,7 +15722,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.50191183109127</v>
+        <v>1.491500832318464</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.328776851287893</v>
@@ -15919,7 +15811,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.480519800694339</v>
+        <v>1.473174421050891</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.252927881752748</v>
@@ -16008,7 +15900,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.485310379232348</v>
+        <v>1.479830218178065</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.318383047932359</v>
@@ -16097,7 +15989,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.510645835227131</v>
+        <v>1.502575640183499</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.259378315423865</v>
@@ -16186,7 +16078,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.537050889112606</v>
+        <v>1.525909623671923</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.417580099918936</v>
@@ -16275,7 +16167,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.552200232311296</v>
+        <v>1.538585784887389</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.758580157791908</v>
@@ -16364,7 +16256,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.56028295024085</v>
+        <v>1.543710028938102</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.570240971696406</v>
@@ -16453,7 +16345,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.575319353725368</v>
+        <v>1.557960841925442</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.913823418349831</v>
@@ -16542,7 +16434,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.580718770683555</v>
+        <v>1.555510656141591</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.934302858820433</v>
@@ -16631,7 +16523,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.564300555218333</v>
+        <v>1.533573277321989</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.806220643516345</v>
@@ -16720,7 +16612,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.552603108417028</v>
+        <v>1.523550138812081</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.596574510992489</v>
@@ -16809,7 +16701,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552870023914362</v>
+        <v>1.52247150524658</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.730808574743179</v>
@@ -16898,7 +16790,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.558710290687835</v>
+        <v>1.525292573405673</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.857543925236933</v>
@@ -16987,7 +16879,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.558023756639502</v>
+        <v>1.519664352470853</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.909322918821631</v>
@@ -17076,7 +16968,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.557380399964665</v>
+        <v>1.525041546942155</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.591478395570312</v>
@@ -17165,7 +17057,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.564333860528824</v>
+        <v>1.524851159349435</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.885729627958114</v>
@@ -17254,7 +17146,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.580483401251355</v>
+        <v>1.532408331756707</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.968198855270639</v>
@@ -17343,7 +17235,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580266546966097</v>
+        <v>1.527869930770225</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.281828144524468</v>
@@ -17432,7 +17324,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.569618250044541</v>
+        <v>1.519807683101018</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.704920478759204</v>
@@ -17521,7 +17413,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.578226549878153</v>
+        <v>1.528408637273898</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.012739033853451</v>
@@ -17610,7 +17502,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.55803842883866</v>
+        <v>1.511974915401639</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.899024794536821</v>
@@ -17699,7 +17591,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.564842456431491</v>
+        <v>1.516535240878333</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.69894629208265</v>
@@ -17788,7 +17680,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567447421141497</v>
+        <v>1.518827211032538</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.035271431248057</v>
@@ -17877,7 +17769,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.569505672759703</v>
+        <v>1.528601169905482</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.836364673529418</v>
@@ -17966,7 +17858,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.574819922920042</v>
+        <v>1.533280221266888</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.767682209095863</v>
@@ -18055,7 +17947,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.576450483683667</v>
+        <v>1.539730646925488</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.57945130951056</v>
@@ -18144,7 +18036,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.57869135417171</v>
+        <v>1.540220699751683</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.847856858474286</v>
@@ -18233,7 +18125,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.595777597855781</v>
+        <v>1.552367847199266</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.56226679604897</v>
@@ -18322,7 +18214,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.597958297174944</v>
+        <v>1.561278394998011</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.629072698538981</v>
@@ -18411,7 +18303,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.595130398057943</v>
+        <v>1.559866116827873</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.743732272707349</v>
@@ -18500,7 +18392,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.594099133213772</v>
+        <v>1.571514794585567</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.840735765112997</v>
@@ -18589,7 +18481,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.602958414576479</v>
+        <v>1.582478132161247</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.872465568992427</v>
@@ -18678,7 +18570,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606564772173086</v>
+        <v>1.590903169809251</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.88032690268978</v>
@@ -18767,7 +18659,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.622615122441872</v>
+        <v>1.607878440483141</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.784822506740828</v>
@@ -18856,7 +18748,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.605747610696092</v>
+        <v>1.590863940522447</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.756898730849394</v>
@@ -18945,7 +18837,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608402818972737</v>
+        <v>1.593848198408524</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.92444056819878</v>
@@ -19034,7 +18926,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.606307523283673</v>
+        <v>1.591182295103798</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.671765604455044</v>
@@ -19123,7 +19015,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607583976022191</v>
+        <v>1.594154306765887</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.944725037822397</v>
@@ -19212,7 +19104,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.596479311543969</v>
+        <v>1.584437466411041</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.739315427907492</v>
@@ -19301,7 +19193,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.594960463779928</v>
+        <v>1.582212384718068</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.595013115677008</v>
@@ -19390,7 +19282,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.600243012198909</v>
+        <v>1.583191634339193</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.158248125895504</v>
@@ -19479,7 +19371,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.592881500662945</v>
+        <v>1.574160776456967</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.766043924189986</v>
@@ -19568,7 +19460,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.550351300701174</v>
+        <v>1.541369418798416</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.59413677398198</v>
@@ -19657,7 +19549,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.520123341205313</v>
+        <v>1.517723246006129</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.741733403431564</v>
@@ -19746,7 +19638,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.492930507864185</v>
+        <v>1.491773643068209</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.752321053792663</v>
@@ -19835,7 +19727,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.438837720792498</v>
+        <v>1.43545234744404</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.107642401871792</v>
@@ -19924,7 +19816,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.441610253756688</v>
+        <v>1.438539398257184</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.086121609478672</v>
@@ -20013,7 +19905,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.443124260762705</v>
+        <v>1.437178424781447</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.161111508708997</v>
@@ -20102,7 +19994,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.415468773662893</v>
+        <v>1.409890566805127</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.006194388742224</v>
@@ -20191,7 +20083,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.421280268743146</v>
+        <v>1.418577250681912</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.185470855514942</v>
@@ -20280,7 +20172,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.414052858509134</v>
+        <v>1.399028961343437</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.123357437098547</v>
@@ -20369,7 +20261,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.370173327368575</v>
+        <v>1.372828119137899</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.135353271608461</v>
@@ -20458,7 +20350,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.37223876601578</v>
+        <v>1.37387738170725</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.206127085058949</v>
@@ -20547,7 +20439,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.374698864375647</v>
+        <v>1.376325725769848</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.197647225456499</v>
@@ -20636,7 +20528,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.386879990694062</v>
+        <v>1.387647928767655</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.224528486151345</v>
@@ -20725,7 +20617,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.386519960283806</v>
+        <v>1.391980202575985</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.15802003515572</v>
@@ -20814,7 +20706,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.3922268584284</v>
+        <v>1.401150475516089</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.07216023135095</v>
@@ -20903,7 +20795,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.407921477003446</v>
+        <v>1.420358330615934</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.219894326935202</v>
@@ -20992,7 +20884,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.431961218510401</v>
+        <v>1.443841621638154</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.174994799131493</v>
@@ -21278,7 +21170,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.517795972573927</v>
+        <v>1.518044741599139</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.349255692646793</v>
@@ -21367,7 +21259,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.518357868789182</v>
+        <v>1.517246205802964</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.27953930757734</v>
@@ -21456,7 +21348,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.52952729945857</v>
+        <v>1.527901937691394</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.332216374648301</v>
@@ -21545,7 +21437,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.513681877505684</v>
+        <v>1.514506311444682</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.399996639363189</v>
@@ -21634,7 +21526,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.51584818368239</v>
+        <v>1.51701862048291</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.275553637139509</v>
@@ -21723,7 +21615,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.533145545844888</v>
+        <v>1.530357410827742</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.422813029549423</v>
@@ -21812,7 +21704,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.570488681163551</v>
+        <v>1.566070888183088</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.473608791955693</v>
@@ -21901,7 +21793,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602898549527934</v>
+        <v>1.590751835228057</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.736131447906415</v>
@@ -21990,7 +21882,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.61018659787205</v>
+        <v>1.592932609076016</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.663672282653455</v>
@@ -22079,7 +21971,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.631225988507996</v>
+        <v>1.609738702678426</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.979197454274024</v>
@@ -22168,7 +22060,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.629785217093799</v>
+        <v>1.609933179139158</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.924226275661302</v>
@@ -22257,7 +22149,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.609069413029609</v>
+        <v>1.585068846937475</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.673022788610541</v>
@@ -22346,7 +22238,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605436778525389</v>
+        <v>1.580917844617398</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.596332377033707</v>
@@ -22435,7 +22327,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.605422399765399</v>
+        <v>1.578134588530841</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.812006981329595</v>
@@ -22524,7 +22416,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.611407693869507</v>
+        <v>1.579394517501346</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.821066105543055</v>
@@ -22613,7 +22505,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.615123289416211</v>
+        <v>1.578626590720359</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.837604496255271</v>
@@ -22702,7 +22594,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.614940585544787</v>
+        <v>1.581499658480987</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.637158066547971</v>
@@ -22791,7 +22683,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.610221915077717</v>
+        <v>1.57034448352404</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.905312791653764</v>
@@ -22880,7 +22772,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.636192210510578</v>
+        <v>1.588062337511535</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.178286534123667</v>
@@ -22969,7 +22861,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.629650850416877</v>
+        <v>1.577725592815543</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.506394128009244</v>
@@ -23058,7 +22950,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.602370666438342</v>
+        <v>1.551203308412649</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.667841031814052</v>
@@ -23147,7 +23039,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.600620797770431</v>
+        <v>1.550053732163662</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.053493432730012</v>
@@ -23236,7 +23128,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.599963312141499</v>
+        <v>1.549037041050848</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.160109179620568</v>
@@ -23325,7 +23217,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.608170647565566</v>
+        <v>1.557612165313679</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.740600459257401</v>
@@ -23414,7 +23306,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.61273330571121</v>
+        <v>1.559640827482609</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.091901946492955</v>
@@ -23503,7 +23395,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.624203383292459</v>
+        <v>1.569676682894294</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.137434941876835</v>
@@ -23592,7 +23484,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.626361781910057</v>
+        <v>1.57308072185732</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.929002321724787</v>
@@ -23681,7 +23573,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.622253371455892</v>
+        <v>1.570340913030733</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.787877916420527</v>
@@ -23770,7 +23662,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.622249418188449</v>
+        <v>1.569328882465114</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.970561546879704</v>
@@ -23859,7 +23751,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.622050084026556</v>
+        <v>1.570436587624062</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.904318348455439</v>
@@ -23948,7 +23840,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.630445628839071</v>
+        <v>1.584300281618255</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.824414207723184</v>
@@ -24037,7 +23929,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.631338692985382</v>
+        <v>1.582260994819137</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.810759011963746</v>
@@ -24126,7 +24018,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.636743475428137</v>
+        <v>1.594284081447279</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.810339967473492</v>
@@ -24215,7 +24107,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.65603880710017</v>
+        <v>1.608691430368019</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.907315344545957</v>
@@ -24304,7 +24196,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.679153276376368</v>
+        <v>1.625548717771006</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.993035773272761</v>
@@ -24393,7 +24285,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.696459181228532</v>
+        <v>1.644424311577394</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.16490081185984</v>
@@ -24482,7 +24374,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.675797709976512</v>
+        <v>1.627488564458503</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.098146999556561</v>
@@ -24571,7 +24463,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.668788268754446</v>
+        <v>1.624101997346915</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.138695392929066</v>
@@ -24660,7 +24552,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.650604311373103</v>
+        <v>1.614182967536507</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.088472366971352</v>
@@ -24749,7 +24641,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.654031855571377</v>
+        <v>1.612673087228869</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.285723892831173</v>
@@ -24838,7 +24730,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.645260994086639</v>
+        <v>1.606587604177918</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.024720576498292</v>
@@ -24927,7 +24819,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.659198535295547</v>
+        <v>1.616704848910575</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.775437786241561</v>
@@ -25016,7 +24908,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.673790654925096</v>
+        <v>1.629892868929164</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.130041247123452</v>
@@ -25105,7 +24997,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.658506343598509</v>
+        <v>1.61834700397443</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.072345165133846</v>
@@ -25194,7 +25086,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.620941939654736</v>
+        <v>1.589228855589383</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.691342009662808</v>
@@ -25283,7 +25175,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.587946969802333</v>
+        <v>1.560047893111883</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.67892415134385</v>
@@ -25372,7 +25264,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.557337327489869</v>
+        <v>1.532468515825613</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.617939098096475</v>
@@ -25461,7 +25353,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.490332540567286</v>
+        <v>1.472610516995162</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.223420904566478</v>
@@ -25550,7 +25442,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.468419741976966</v>
+        <v>1.452305593657026</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.175655166881975</v>
@@ -25639,7 +25531,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.45278296713992</v>
+        <v>1.437137500887644</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.163360585307261</v>
@@ -25728,7 +25620,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.447853646167102</v>
+        <v>1.431601455224018</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.21270651874331</v>
@@ -25817,7 +25709,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.443553507993044</v>
+        <v>1.428184845543315</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.136793151568149</v>
@@ -25906,7 +25798,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.431387517135754</v>
+        <v>1.407167612135266</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.117744130958035</v>
@@ -25995,7 +25887,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.393334728981608</v>
+        <v>1.378280537802733</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.173516751261511</v>
@@ -26084,7 +25976,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.392658306763838</v>
+        <v>1.377544254014933</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.230633740862459</v>
@@ -26173,7 +26065,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.388178644752684</v>
+        <v>1.374258568671435</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.267160931146626</v>
@@ -26262,7 +26154,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.391798209745167</v>
+        <v>1.376221914956838</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.247906328157875</v>
@@ -26351,7 +26243,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.393113354049135</v>
+        <v>1.376233182549934</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.168656281717071</v>
@@ -26440,7 +26332,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.406206193626574</v>
+        <v>1.386953828546456</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.225448662811251</v>
@@ -26529,7 +26421,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.421304163934411</v>
+        <v>1.403492732440919</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.270498975470791</v>
@@ -26618,7 +26510,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.436415025999958</v>
+        <v>1.417258106628794</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.196755856614323</v>
@@ -26904,7 +26796,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.360675284196383</v>
+        <v>1.37616652547455</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.889229142803356</v>
@@ -26993,7 +26885,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.355559162149952</v>
+        <v>1.370750663816425</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.903522590621286</v>
@@ -27082,7 +26974,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.351517891923538</v>
+        <v>1.366682959183835</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.888965555524357</v>
@@ -27171,7 +27063,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.339992700313757</v>
+        <v>1.355435197804681</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.891372862948759</v>
@@ -27260,7 +27152,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.347434246516332</v>
+        <v>1.362745167516783</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.877245886670923</v>
@@ -27349,7 +27241,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.381890883712396</v>
+        <v>1.396331439239077</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.924088413743262</v>
@@ -27438,7 +27330,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.402254983196205</v>
+        <v>1.419252094318136</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.783111728332147</v>
@@ -27527,7 +27419,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.404850611791993</v>
+        <v>1.420868558702248</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.843096963740846</v>
@@ -27616,7 +27508,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.442378399087771</v>
+        <v>1.452214674622968</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.749899582879415</v>
@@ -27705,7 +27597,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.48377189820461</v>
+        <v>1.491086449609671</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.445437618964093</v>
@@ -27794,7 +27686,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.503236255245808</v>
+        <v>1.510868078080741</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.374676559667017</v>
@@ -27883,7 +27775,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.508108290377341</v>
+        <v>1.506034630130405</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.092096650814411</v>
@@ -27972,7 +27864,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.550115444756908</v>
+        <v>1.536010802583351</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.892860981048569</v>
@@ -28061,7 +27953,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.538806728751082</v>
+        <v>1.523462075955694</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.738491685407275</v>
@@ -28150,7 +28042,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.541191415949829</v>
+        <v>1.525657823265277</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.814248029187758</v>
@@ -28239,7 +28131,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.548549941899208</v>
+        <v>1.530504360165439</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.821839364390897</v>
@@ -28328,7 +28220,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.560512165255651</v>
+        <v>1.542067034739017</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.731286805901719</v>
@@ -28417,7 +28309,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.565627762993486</v>
+        <v>1.540166813353611</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.771126053997583</v>
@@ -28506,7 +28398,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.592534039477676</v>
+        <v>1.564456853259979</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.637518001910589</v>
@@ -28595,7 +28487,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.596328164445956</v>
+        <v>1.564662734760792</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.733318718745887</v>
@@ -28684,7 +28576,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.585923115338896</v>
+        <v>1.553929654687828</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.809878567458123</v>
@@ -28773,7 +28665,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571815958880852</v>
+        <v>1.534240291205002</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.88317403562186</v>
@@ -28862,7 +28754,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.561756186367171</v>
+        <v>1.52511896827214</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.965694207862985</v>
@@ -28951,7 +28843,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.578163308552853</v>
+        <v>1.54241346166172</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.030846504861017</v>
@@ -29040,7 +28932,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.563077368318424</v>
+        <v>1.535405087215465</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.709074905340786</v>
@@ -29129,7 +29021,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.565925770564373</v>
+        <v>1.538096950717851</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.118595723919804</v>
@@ -29218,7 +29110,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.566390746412026</v>
+        <v>1.539524469387706</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.666923050539589</v>
@@ -29307,7 +29199,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.554090193952961</v>
+        <v>1.526088234778713</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.074167841829474</v>
@@ -29396,7 +29288,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.56822606499723</v>
+        <v>1.538198922958034</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.053100965601364</v>
@@ -29485,7 +29377,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.58008683613432</v>
+        <v>1.552528074589175</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.075469340195264</v>
@@ -29574,7 +29466,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586505769198542</v>
+        <v>1.559292085411956</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.04100164892223</v>
@@ -29663,7 +29555,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.575022453199932</v>
+        <v>1.553834655544762</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.987157575235813</v>
@@ -29752,7 +29644,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.56454095861393</v>
+        <v>1.552733571227767</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.895701356087257</v>
@@ -29841,7 +29733,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.549122908134487</v>
+        <v>1.534892026964574</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.144151867834418</v>
@@ -29930,7 +29822,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.555006745086952</v>
+        <v>1.54102112785221</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.82651202945578</v>
@@ -30019,7 +29911,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.568809390001141</v>
+        <v>1.55826805831841</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.965368950098675</v>
@@ -30108,7 +30000,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.573652352896094</v>
+        <v>1.564835950444253</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.996643788976313</v>
@@ -30197,7 +30089,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578066649677281</v>
+        <v>1.568674325449342</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.958426410748858</v>
@@ -30286,7 +30178,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.576164391757124</v>
+        <v>1.563738145165293</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.858609339872301</v>
@@ -30375,7 +30267,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.582440338356214</v>
+        <v>1.566176366097984</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.137663354391127</v>
@@ -30464,7 +30356,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.528227514595308</v>
+        <v>1.518813071424216</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.011141598932269</v>
@@ -30553,7 +30445,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.527461457378615</v>
+        <v>1.519380455248293</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.007488010980025</v>
@@ -30642,7 +30534,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.538404110659873</v>
+        <v>1.5267286272872</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.031478295017002</v>
@@ -30731,7 +30623,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.510891404035056</v>
+        <v>1.503769008436373</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.095742471916011</v>
@@ -30820,7 +30712,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.457162323008643</v>
+        <v>1.455377122414233</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.092372384471879</v>
@@ -30909,7 +30801,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.42449710656457</v>
+        <v>1.427146324737528</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.249332358269529</v>
@@ -30998,7 +30890,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.374092613367949</v>
+        <v>1.376356418984631</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.235071925889031</v>
@@ -31087,7 +30979,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.346328899015929</v>
+        <v>1.354544548104249</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.254502129409798</v>
@@ -31176,7 +31068,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.335749476083121</v>
+        <v>1.349465822601478</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.265915846663216</v>
@@ -31265,7 +31157,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.335318197337628</v>
+        <v>1.349679173949821</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.275426682879003</v>
@@ -31354,7 +31246,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.30310295330801</v>
+        <v>1.31472382165379</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.303044161292937</v>
@@ -31443,7 +31335,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.307411127812003</v>
+        <v>1.317788802544575</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.362631453575182</v>
@@ -31532,7 +31424,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.306982684459048</v>
+        <v>1.310082501148093</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.131620425835238</v>
@@ -31621,7 +31513,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.284832724466491</v>
+        <v>1.292721187918319</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.160110209135509</v>
@@ -31710,7 +31602,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.2918029754068</v>
+        <v>1.303390782113017</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.119701431081567</v>
@@ -31799,7 +31691,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.304217846433826</v>
+        <v>1.316358896873225</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.169109714207886</v>
@@ -31888,7 +31780,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.307457717190289</v>
+        <v>1.320339068485751</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.185564214127764</v>
@@ -31977,7 +31869,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.300061577135015</v>
+        <v>1.315225578526335</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.246011990180035</v>
@@ -32066,7 +31958,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.307475805655507</v>
+        <v>1.321939218323578</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.228472629582451</v>
@@ -32155,7 +32047,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.326808202402582</v>
+        <v>1.347584285197076</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.142748807271154</v>
@@ -32244,7 +32136,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.345496901310575</v>
+        <v>1.362669034604786</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.136796989870519</v>
@@ -32530,7 +32422,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.227101740712564</v>
+        <v>1.234958876002707</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.994271134771932</v>
@@ -32619,7 +32511,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.249705047827149</v>
+        <v>1.257613200441178</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.94838164601549</v>
@@ -32708,7 +32600,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.249325804764726</v>
+        <v>1.257233770921326</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.973529236295792</v>
@@ -32797,7 +32689,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.229749185852739</v>
+        <v>1.236587583559937</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.005552197441617</v>
@@ -32886,7 +32778,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.241382091209776</v>
+        <v>1.245732712956468</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.967754386515869</v>
@@ -32975,7 +32867,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.278894738209147</v>
+        <v>1.28765270402848</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.893907696766542</v>
@@ -33064,7 +32956,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.285031617319147</v>
+        <v>1.288095935010983</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.982045016457248</v>
@@ -33153,7 +33045,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.281215663736817</v>
+        <v>1.279670626570838</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.897873673812605</v>
@@ -33242,7 +33134,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.273203758164696</v>
+        <v>1.269821658401083</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.975154256484055</v>
@@ -33331,7 +33223,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.275779445717812</v>
+        <v>1.280643310388226</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.857668769898025</v>
@@ -33420,7 +33312,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.318200387153833</v>
+        <v>1.32447779574328</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.866437430931133</v>
@@ -33509,7 +33401,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.311630519774603</v>
+        <v>1.313540120072054</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.909455007491412</v>
@@ -33598,7 +33490,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.281560528601185</v>
+        <v>1.281358320840785</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.937394747782311</v>
@@ -33687,7 +33579,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.275977113519971</v>
+        <v>1.279392595956711</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.958710350661427</v>
@@ -33776,7 +33668,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.284003287459298</v>
+        <v>1.288134966455532</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.000734233586686</v>
@@ -33865,7 +33757,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.288312988681096</v>
+        <v>1.290834532552826</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.956493638695576</v>
@@ -33954,7 +33846,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.29184949808563</v>
+        <v>1.295868820536744</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.985379207765217</v>
@@ -34043,7 +33935,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.295346045192476</v>
+        <v>1.295478610946541</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.814497229507603</v>
@@ -34132,7 +34024,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.293675804234336</v>
+        <v>1.299413567010108</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.063919703536227</v>
@@ -34221,7 +34113,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.292628331008238</v>
+        <v>1.296682410571356</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.028209788286875</v>
@@ -34310,7 +34202,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.287474111893929</v>
+        <v>1.28902770614284</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.022550476287114</v>
@@ -34399,7 +34291,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.311324461433171</v>
+        <v>1.313938178186254</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.952700300203482</v>
@@ -34488,7 +34380,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.287144490094194</v>
+        <v>1.293278297775323</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.042747317538788</v>
@@ -34577,7 +34469,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.31240898145809</v>
+        <v>1.317551066517425</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.063525484422255</v>
@@ -34666,7 +34558,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.317210584994623</v>
+        <v>1.321701627664804</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.02413035937908</v>
@@ -34755,7 +34647,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.299966356570258</v>
+        <v>1.300423559803217</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.00048592704715</v>
@@ -34844,7 +34736,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.311451429891334</v>
+        <v>1.300569411754127</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.890085938319675</v>
@@ -34933,7 +34825,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.305830661355802</v>
+        <v>1.305930663313747</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.928786333654146</v>
@@ -35022,7 +34914,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.305389372490255</v>
+        <v>1.303348604318157</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.041368457655188</v>
@@ -35111,7 +35003,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.3261287044274</v>
+        <v>1.31477200387177</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.007645491817895</v>
@@ -35200,7 +35092,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.29851072680039</v>
+        <v>1.298714884074643</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.984410200169121</v>
@@ -35289,7 +35181,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.297915466626526</v>
+        <v>1.295559859059262</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.941920117982891</v>
@@ -35378,7 +35270,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.293533919715844</v>
+        <v>1.292229372908428</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.068081825190117</v>
@@ -35467,7 +35359,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.328690627961017</v>
+        <v>1.328272327693518</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.980695788222991</v>
@@ -35556,7 +35448,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.303278269792948</v>
+        <v>1.303544854499356</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.028094976002583</v>
@@ -35645,7 +35537,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.310797362224268</v>
+        <v>1.31292845843851</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.028529011684342</v>
@@ -35734,7 +35626,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.270031783370081</v>
+        <v>1.266746615289478</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.073304746681486</v>
@@ -35823,7 +35715,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.294907196944097</v>
+        <v>1.290429365661145</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.03376121939319</v>
@@ -35912,7 +35804,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.301745166762164</v>
+        <v>1.298772422413904</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.052925110093656</v>
@@ -36001,7 +35893,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.301593070910865</v>
+        <v>1.300641781627223</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.077821648303062</v>
@@ -36090,7 +35982,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.279963798924518</v>
+        <v>1.286873279836056</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.88553487624285</v>
@@ -36179,7 +36071,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.268118422002352</v>
+        <v>1.277953031386476</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.832348101859778</v>
@@ -36268,7 +36160,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.276145155035037</v>
+        <v>1.286190688944878</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.921765474029803</v>
@@ -36357,7 +36249,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.304218714767435</v>
+        <v>1.320234492892415</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.946877728959241</v>
@@ -36446,7 +36338,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.338622749361433</v>
+        <v>1.347816320827477</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.94609986628012</v>
@@ -36535,7 +36427,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.316268271096998</v>
+        <v>1.32689732075518</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.005355875473853</v>
@@ -36624,7 +36516,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.307184191248304</v>
+        <v>1.322140713414294</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.075702191654616</v>
@@ -36713,7 +36605,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.248531622640761</v>
+        <v>1.257058787079104</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.749509145890225</v>
@@ -36802,7 +36694,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.257846494119738</v>
+        <v>1.269009995314174</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.758895589760011</v>
@@ -36891,7 +36783,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.274058783195007</v>
+        <v>1.287465624356869</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.75973557628241</v>
@@ -36980,7 +36872,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.291431167527665</v>
+        <v>1.306419844362317</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.727574301156051</v>
@@ -37069,7 +36961,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.301646304629032</v>
+        <v>1.324530822505309</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.802735482253629</v>
@@ -37158,7 +37050,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.317273454065938</v>
+        <v>1.341497686919367</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.858161259109502</v>
@@ -37247,7 +37139,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.32529233748138</v>
+        <v>1.346759983029662</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.883272661528139</v>
@@ -37336,7 +37228,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.333999813269962</v>
+        <v>1.353582051719308</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.892331812991154</v>
@@ -37425,7 +37317,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.344094404366928</v>
+        <v>1.362047684212981</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.903490583765961</v>
@@ -37514,7 +37406,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.363941042807413</v>
+        <v>1.382784214917315</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.899225992320332</v>
@@ -37603,7 +37495,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.364145741277231</v>
+        <v>1.383662449934</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.910407371286943</v>
@@ -37692,7 +37584,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.360759432395511</v>
+        <v>1.380206012420987</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.912348937473381</v>
@@ -37781,7 +37673,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.373632985290011</v>
+        <v>1.394122752921266</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.840209731570418</v>
@@ -37870,7 +37762,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.400870579292159</v>
+        <v>1.418576972882436</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.842998884708857</v>
